--- a/Assignments/hw1/q2/q2r2.xlsx
+++ b/Assignments/hw1/q2/q2r2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Aero_5830\Assignments\hw1\q2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F365F9C1-3395-47FF-A60A-582DA57579E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C108198-527A-4B28-813F-5A755753D02A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="1965" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{E9679AB0-B6B3-4152-B8AC-7AD4B5BE869B}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{E9679AB0-B6B3-4152-B8AC-7AD4B5BE869B}"/>
   </bookViews>
   <sheets>
     <sheet name="fl" sheetId="2" r:id="rId1"/>
@@ -677,9 +677,9 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
